--- a/doktor/bryggeskjema.xlsx
+++ b/doktor/bryggeskjema.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Bryggedato</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Volum etter kok</t>
   </si>
   <si>
-    <t>SG før kok</t>
-  </si>
-  <si>
     <t>IBU</t>
   </si>
   <si>
@@ -49,15 +46,9 @@
     <t>OG oppskrift</t>
   </si>
   <si>
-    <t>OG faktisk</t>
-  </si>
-  <si>
     <t>FG oppskrift</t>
   </si>
   <si>
-    <t>FG faktisk</t>
-  </si>
-  <si>
     <t>ABV oppskrift</t>
   </si>
   <si>
@@ -167,13 +158,28 @@
   </si>
   <si>
     <t>Gjær i 21 døgn</t>
+  </si>
+  <si>
+    <t>Brix oppskrift</t>
+  </si>
+  <si>
+    <t>Brix før kok</t>
+  </si>
+  <si>
+    <t>Brix etter kok</t>
+  </si>
+  <si>
+    <t>Brix etter gjæring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +189,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,24 +220,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -241,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,443 +577,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B7+B19*B18+B20</f>
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B28" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <f>SUM(B28:B33)</f>
+        <v>14.6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2">
+        <v>600</v>
+      </c>
+      <c r="D39" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>80</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C43" s="2">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>B7+B17*B16+B18</f>
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>0.4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>0.7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>0.4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <f>SUM(B26:B31)</f>
-        <v>14.6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="2">
+        <f>3.1296*B34</f>
+        <v>45.692160000000001</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="2">
+        <f>B6+0.8345*B34-B51</f>
+        <v>41.491540000000001</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2">
+        <f>SUM(B51:B52)</f>
+        <v>87.183700000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>15.5</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37">
-        <v>600</v>
-      </c>
-      <c r="D37" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>15.5</v>
-      </c>
-      <c r="C38">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>15.5</v>
-      </c>
-      <c r="C39">
-        <v>40</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>15.5</v>
-      </c>
-      <c r="C40">
-        <v>80</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49">
-        <f>3.1296*B32</f>
-        <v>45.692160000000001</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50">
-        <f>B6+0.8345*B32-B49</f>
-        <v>41.491540000000001</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B49:B50)</f>
-        <v>87.183700000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
